--- a/medicine/Pharmacie/Kurt_Max_Eger/Kurt_Max_Eger.xlsx
+++ b/medicine/Pharmacie/Kurt_Max_Eger/Kurt_Max_Eger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kurt Max Eger (mars 1942) est un chercheur en pharmacie et un enseignant universitaire allemand[1]. Il est l'auteur de très nombreux travaux scientifiques dans ce domaine[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kurt Max Eger (mars 1942) est un chercheur en pharmacie et un enseignant universitaire allemand. Il est l'auteur de très nombreux travaux scientifiques dans ce domaine.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kurt Max Eger naît le 13 mars 1942 à Metz en Lorraine[3]. Après une scolarité classique et un Abitur, Kurt Eger poursuit ses études à la faculté de Erlangen, de 1965 à 1969. Il obtient un doctorat à l'Université de Bonn, sous la direction du professeur H.J.Roth en 1973. Nommé assistant de recherche à l'Université de Bonn en 1973, il reste en poste jusqu'en 1977, date à laquelle il devient membre du conseil universitaire. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kurt Max Eger naît le 13 mars 1942 à Metz en Lorraine. Après une scolarité classique et un Abitur, Kurt Eger poursuit ses études à la faculté de Erlangen, de 1965 à 1969. Il obtient un doctorat à l'Université de Bonn, sous la direction du professeur H.J.Roth en 1973. Nommé assistant de recherche à l'Université de Bonn en 1973, il reste en poste jusqu'en 1977, date à laquelle il devient membre du conseil universitaire. 
 À partir de 1984, Kurt Eger enseigne à l’Université de Tübingen. En 1985, il obtient son habilitation et son « venia legendi » lui permettant d'enseigner. Il enseigne à Tübingen jusqu'en 1992. Directeur de l'Institut de Pharmacie de 1993 à 1996 et de 1999 à 2002, il enseigne aussi, après la Réunification allemande, à l'Université de Leipzig.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteur de nombreux travaux scientifiques dans le domaine pharmaceutique et médical[4], Kurt Eger est membre de la « Gesellschaft Deutscher Chemiker », de la « Deutsche Pharmazeutische Gesellschaft », et de la « Paul Ehrlich Organization ».
-Ses travaux étant reconnus aux USA, il est également membre de l'« Association américaine pour l'avancement des sciences »[5], et de la « Société américaine de chimie »[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auteur de nombreux travaux scientifiques dans le domaine pharmaceutique et médical, Kurt Eger est membre de la « Gesellschaft Deutscher Chemiker », de la « Deutsche Pharmazeutische Gesellschaft », et de la « Paul Ehrlich Organization ».
+Ses travaux étant reconnus aux USA, il est également membre de l'« Association américaine pour l'avancement des sciences », et de la « Société américaine de chimie ».
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eger, Kurt M. ; Troschütz, Reinhard ; Roth, Hermann J.: Arzneistoffanalyse, völlig neu bearb. Aufl., Thieme, Stuttgart, 2006.
 Roth, Hermann J. ; Eger, Kurt M. ; Troschütz, Reinhard: Arzneistoffanalyse, 3. Aufl., 1., korrigierter Nachdr., 1996.
@@ -613,7 +631,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pharmazeutisches Institut der Universität, Lehrstuhl für Pharm. Chemie, Tübingen.</t>
         </is>
